--- a/E-Mensa Werbeseite/Dossier.xlsx
+++ b/E-Mensa Werbeseite/Dossier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deutschland\FH Aachen\3.Sem\DBWT\E-Mensa Werbeseite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deutschland\FH Aachen\3.Sem\DBWT\DBWT_Praktikum\E-Mensa Werbeseite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA9E05-5FFB-4847-88B2-55DF22FCCA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EAE53-F239-44B2-8C95-439F9D4A513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{45FF241A-0886-49EC-98D9-701E51500B20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Dossier DBWT Praktikum 1</t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>Wir müssen noch den Syntax von der Folien schauen</t>
+  </si>
+  <si>
+    <t>Problem bei dem Format der Symbolen in draw.io</t>
+  </si>
+  <si>
+    <t>11.2c</t>
+  </si>
+  <si>
+    <t>Schon in M2 erledigt</t>
+  </si>
+  <si>
+    <t>Problem bei jedem Refresh von Webseite</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorkenntnisse (Folien und Videos von Vorlesung schauen) </t>
+  </si>
+  <si>
+    <t>Schwierigkeit bei Verbindung der php.in Datei mit DIE</t>
+  </si>
+  <si>
+    <t>Liste von Allergene anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einträgung des Typ von Hauptspeisen </t>
+  </si>
+  <si>
+    <t>Aufgabe 7</t>
+  </si>
+  <si>
+    <t>Aufgabe 11bc</t>
   </si>
 </sst>
 </file>
@@ -384,7 +417,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -400,6 +433,135 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
@@ -408,131 +570,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -871,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699768BC-4EC1-4FC2-B47D-64D2C1643E17}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,20 +924,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -915,176 +954,176 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="33">
-        <v>5</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33">
-        <v>5</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="18">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="18">
         <v>15</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
         <v>15</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="18">
         <v>15</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
         <v>11</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33">
-        <v>10</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33">
-        <v>10</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="18">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="33">
-        <v>5</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33">
+      <c r="B9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>2</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="33">
-        <v>10</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33">
-        <v>10</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="B10" s="18">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="33">
-        <v>5</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33">
-        <v>5</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="18">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
+        <v>5</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="18">
         <v>30</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <v>30</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="18">
         <v>30</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
         <v>40</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1093,107 +1132,107 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="33">
-        <v>10</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33">
+      <c r="B14" s="18">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
         <v>60</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="18">
         <v>30</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
         <v>40</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="39" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="18">
         <v>60</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
         <v>60</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="18">
         <v>120</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
         <v>180</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="24">
         <v>180</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23">
+      <c r="C18" s="41"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24">
         <v>300</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="1"/>
       <c r="N18" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1211,56 +1250,56 @@
       <c r="A22" s="7">
         <v>1</v>
       </c>
-      <c r="B22" s="19">
-        <v>10</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19">
+      <c r="B22" s="16">
+        <v>10</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
         <v>30</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="35" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="35"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="16">
         <v>30</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
         <v>45</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3.1</v>
       </c>
-      <c r="B24" s="19">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
-        <v>10</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8" t="s">
+      <c r="B24" s="16">
+        <v>10</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16">
+        <v>10</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="51" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1268,466 +1307,466 @@
       <c r="A25" s="7">
         <v>3.2</v>
       </c>
-      <c r="B25" s="19">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19">
-        <v>10</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="9"/>
+      <c r="B25" s="16">
+        <v>10</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16">
+        <v>10</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>3.3</v>
       </c>
-      <c r="B26" s="19">
-        <v>10</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19">
-        <v>10</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="9"/>
+      <c r="B26" s="16">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
-        <v>10</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19">
-        <v>10</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="9"/>
+      <c r="B27" s="16">
+        <v>10</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
-        <v>10</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19">
-        <v>10</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="9"/>
+      <c r="B28" s="16">
+        <v>10</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <v>15</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16">
         <v>15</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
-        <v>5</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19">
-        <v>5</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="16">
+        <v>5</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="16">
         <v>15</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16">
         <v>30</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
-        <v>10</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19">
-        <v>10</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="11" t="s">
+      <c r="B32" s="16">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>10</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="16">
         <v>40</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16">
         <v>70</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
-        <v>10</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19">
-        <v>10</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="11" t="s">
+      <c r="B34" s="16">
+        <v>10</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16">
+        <v>10</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="16">
         <v>45</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16">
         <v>70</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="10"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>4</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="11">
         <v>1</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11">
         <v>1</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>5</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="11">
         <v>20</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20">
-        <v>10</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="25" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11">
+        <v>10</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="19">
-        <v>10</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19">
-        <v>10</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="16">
+        <v>10</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16">
+        <v>10</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="19">
-        <v>5</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19">
-        <v>5</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
+      <c r="B39" s="16">
+        <v>5</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16">
+        <v>5</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="16">
         <v>15</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16">
         <v>30</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="33" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="33"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="16">
         <v>20</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16">
         <v>30</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="45" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="45"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>7.1</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="16">
         <v>3</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16">
         <v>3</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="13" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>7.2</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="16">
         <v>40</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16">
         <v>40</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>7.3</v>
       </c>
-      <c r="B44" s="19">
-        <v>10</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19">
-        <v>10</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
+      <c r="B44" s="16">
+        <v>10</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16">
+        <v>10</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>7.4</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="16">
         <v>40</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16">
         <v>40</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="16">
         <v>45</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16">
         <v>60</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="46" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="47"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="16">
         <v>50</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16">
         <v>60</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>9</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="16">
         <v>45</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16">
         <v>90</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="36" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="34"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>10</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="16">
         <v>45</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16">
         <v>30</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="36" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="34"/>
       <c r="I49" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="39"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="4" t="s">
         <v>3</v>
       </c>
@@ -1744,705 +1783,639 @@
       <c r="A56" s="7">
         <v>1</v>
       </c>
-      <c r="B56" s="19">
-        <v>5</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19">
-        <v>5</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19" t="s">
+      <c r="B56" s="16">
+        <v>5</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16">
+        <v>5</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="19"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>2.1</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="16">
         <v>3</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16">
         <v>3</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="13" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="14"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B58" s="19">
-        <v>10</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19">
+      <c r="B58" s="16">
+        <v>10</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16">
         <v>20</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="50"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B59" s="19">
-        <v>5</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19">
-        <v>5</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="15" t="s">
+      <c r="B59" s="16">
+        <v>5</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16">
+        <v>5</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="51"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>2.4</v>
       </c>
-      <c r="B60" s="19">
-        <v>10</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19">
-        <v>10</v>
-      </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="15" t="s">
+      <c r="B60" s="16">
+        <v>10</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16">
+        <v>10</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="51"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="B61" s="19">
-        <v>10</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19">
-        <v>10</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="51"/>
+        <v>3.1</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="11">
+        <v>2</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="52" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="B62" s="19">
-        <v>10</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19">
-        <v>10</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="51"/>
+        <v>3.2</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11">
+        <v>3</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="52"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="B63" s="19">
-        <v>15</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19">
-        <v>15</v>
-      </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="51"/>
+        <v>3.3</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="11">
+        <v>2</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="52"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="B64" s="19">
-        <v>5</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19">
-        <v>5</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="51"/>
+        <v>3.4</v>
+      </c>
+      <c r="B64" s="11">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="11">
+        <v>5</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="B65" s="19">
-        <v>15</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19">
-        <v>30</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="51"/>
+        <v>3.5</v>
+      </c>
+      <c r="B65" s="11">
+        <v>5</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="11">
+        <v>5</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="52"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>3.11</v>
-      </c>
-      <c r="B66" s="19">
-        <v>10</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19">
-        <v>10</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="51"/>
+        <v>3.6</v>
+      </c>
+      <c r="B66" s="16">
+        <v>10</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16">
+        <v>10</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="52"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>4</v>
-      </c>
-      <c r="B67" s="19">
-        <v>40</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19">
-        <v>70</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="51"/>
+        <v>3.7</v>
+      </c>
+      <c r="B67" s="16">
+        <v>10</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16">
+        <v>10</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="52"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B68" s="19">
-        <v>10</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19">
-        <v>10</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="51"/>
+        <v>3.8</v>
+      </c>
+      <c r="B68" s="16">
+        <v>15</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16">
+        <v>15</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="52"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="B69" s="19">
-        <v>45</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19">
-        <v>70</v>
-      </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" s="12"/>
+        <v>3.9</v>
+      </c>
+      <c r="B69" s="16">
+        <v>5</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16">
+        <v>5</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="52"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="B70" s="20">
-        <v>1</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="20">
-        <v>1</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="B70" s="16">
+        <v>5</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16">
+        <v>10</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="33"/>
+      <c r="I70" s="52"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="B71" s="20">
-        <v>20</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="20">
-        <v>10</v>
-      </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="1"/>
+        <v>3.11</v>
+      </c>
+      <c r="B71" s="16">
+        <v>10</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16">
+        <v>15</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="33"/>
+      <c r="I71" s="52"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="B72" s="19">
-        <v>10</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19">
-        <v>10</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B72" s="16">
+        <v>20</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16">
+        <v>120</v>
+      </c>
+      <c r="F72" s="16"/>
+      <c r="G72" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="33"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="B73" s="19">
-        <v>5</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19">
-        <v>5</v>
-      </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B73" s="16">
+        <v>20</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16">
+        <v>20</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="33"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="B74" s="19">
-        <v>15</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="B74" s="16">
+        <v>20</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16">
         <v>30</v>
       </c>
-      <c r="F74" s="19"/>
-      <c r="G74" s="33" t="s">
-        <v>39</v>
+      <c r="F74" s="16"/>
+      <c r="G74" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="H74" s="33"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="B75" s="19">
-        <v>20</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="B75" s="11">
         <v>30</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" s="45"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="11">
+        <v>30</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="25"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
-        <v>7</v>
-      </c>
-      <c r="B76" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="B76" s="11">
         <v>3</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19">
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11">
         <v>3</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="1"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="27"/>
+      <c r="I76" s="51" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="B77" s="19">
-        <v>40</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19">
-        <v>40</v>
-      </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="B77" s="16">
+        <v>5</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16">
+        <v>5</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B78" s="19">
-        <v>10</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19">
-        <v>10</v>
-      </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="B78" s="16">
+        <v>5</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16">
+        <v>5</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="52"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B79" s="19">
-        <v>40</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19">
-        <v>40</v>
-      </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+      <c r="B79" s="16">
+        <v>5</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16">
+        <v>5</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="52"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
-        <v>10</v>
-      </c>
-      <c r="B80" s="19">
-        <v>45</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19">
-        <v>60</v>
-      </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="B80" s="16">
+        <v>5</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16">
+        <v>6</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="53"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
+        <v>7</v>
+      </c>
+      <c r="B81" s="16">
+        <v>3</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16">
+        <v>3</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="B82" s="16">
+        <v>10</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16">
+        <v>15</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B83" s="16">
+        <v>0</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" s="21"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B84" s="16">
+        <v>20</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16">
+        <v>30</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" s="21"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>10</v>
+      </c>
+      <c r="B85" s="16">
+        <v>45</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16">
+        <v>60</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" s="27"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
         <v>11.1</v>
       </c>
-      <c r="B81" s="19">
-        <v>50</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19">
-        <v>60</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="B86" s="16">
+        <v>5</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16">
+        <v>5</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="27"/>
+      <c r="I86" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="19">
-        <v>45</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19">
-        <v>90</v>
-      </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="B87" s="16">
+        <v>20</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16">
+        <v>30</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="17"/>
+      <c r="I87" s="52"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="19">
-        <v>45</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19">
-        <v>30</v>
-      </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="1"/>
+      <c r="B88" s="16">
+        <v>5</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16">
+        <v>5</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="17"/>
+      <c r="I88" s="52"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="11">
+        <v>3</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="11">
+        <v>3</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H81"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H79"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G42:H45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H39"/>
+  <mergeCells count="214">
+    <mergeCell ref="I61:I71"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
     <mergeCell ref="I24:I35"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
@@ -2465,11 +2438,202 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="G42:H45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="G61:H69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G76:H80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B80:D80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" xr:uid="{A4DFC6D2-4F32-4C1F-8326-483BC7CC3334}"/>
     <hyperlink ref="I24" r:id="rId2" display="Aufgabe 6" xr:uid="{4EE00BB0-7F59-4ABB-8D2D-AB8D811C5486}"/>
     <hyperlink ref="I24:I35" r:id="rId3" display="Aufgabe 3" xr:uid="{E9947345-3B7D-466E-AE0F-1773374D91F7}"/>
+    <hyperlink ref="I61:I71" r:id="rId4" display="Aufgabe 3" xr:uid="{65D76CB3-890F-4085-8479-17B346020C9A}"/>
+    <hyperlink ref="I76:I80" r:id="rId5" display="Aufgabe 6" xr:uid="{27DB3480-C516-410A-8ACB-2AC4BF9DB94C}"/>
+    <hyperlink ref="I81" r:id="rId6" xr:uid="{0FD3E46C-0788-47B1-A06C-BD4AD4EFD376}"/>
+    <hyperlink ref="I86:I89" r:id="rId7" display="Aufgabe 11bc" xr:uid="{BC04F16B-76DA-4BD5-A340-2E5DB9801BDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/E-Mensa Werbeseite/Dossier.xlsx
+++ b/E-Mensa Werbeseite/Dossier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deutschland\FH Aachen\3.Sem\DBWT\DBWT_Praktikum\E-Mensa Werbeseite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EAE53-F239-44B2-8C95-439F9D4A513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34A6F7B-1DB4-4CDD-BF34-3E16494920DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{45FF241A-0886-49EC-98D9-701E51500B20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Dossier DBWT Praktikum 1</t>
   </si>
@@ -196,6 +196,51 @@
   </si>
   <si>
     <t>Aufgabe 11bc</t>
+  </si>
+  <si>
+    <t>Dossier DBWT Praktikum 4</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwierigkeiten beim Verstehen des Ziel von Aufgaben und Anpassen von vorherigen Code im neuen MVC Müster, besonders bei Anlegen Code für Formular. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwierigkeiten bei der Gewöhnung an MVC Müster. </t>
+  </si>
+  <si>
+    <t>Aufgabe M4</t>
+  </si>
+  <si>
+    <t>Zeit Verbringen beim Kommentare</t>
+  </si>
+  <si>
+    <t>Dossier DBWT Praktikum 5</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem beim Verstehen der Aufgabe. Wir dachten, die Aufgabe benötigt auch noch eine Registrieren Formular.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem beim Anzeigen des Nachrichts von fehlgeschlagenen Anmeldungen und beim try() and catch(). Muss selbst eine eigene Klasse implementieren, um alle EIGENE Exception dazu hinzufügen. </t>
   </si>
 </sst>
 </file>
@@ -251,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -410,6 +455,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -417,7 +480,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -441,6 +504,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,68 +549,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -525,53 +651,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -910,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699768BC-4EC1-4FC2-B47D-64D2C1643E17}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153:F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,20 +1017,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -954,176 +1047,176 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="18">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18">
-        <v>5</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="B4" s="42">
+        <v>5</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42">
+        <v>5</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="42">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
         <v>15</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="42">
         <v>15</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42">
         <v>11</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18">
-        <v>10</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18">
-        <v>10</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="B8" s="42">
+        <v>10</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42">
+        <v>10</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
+      <c r="B9" s="42">
+        <v>5</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42">
         <v>2</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="18">
-        <v>10</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="42">
+        <v>10</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42">
+        <v>10</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18">
-        <v>5</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18">
-        <v>5</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="42">
+        <v>5</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42">
+        <v>5</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="42">
         <v>30</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
         <v>30</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="42">
         <v>30</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42">
         <v>40</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1132,107 +1225,107 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="18">
-        <v>10</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18">
+      <c r="B14" s="42">
+        <v>10</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42">
         <v>60</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="42">
         <v>30</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42">
         <v>40</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="42">
         <v>60</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
         <v>60</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="42">
         <v>120</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
         <v>180</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="28">
         <v>180</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24">
+      <c r="C18" s="44"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28">
         <v>300</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="43" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="1"/>
       <c r="N18" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1250,56 +1343,56 @@
       <c r="A22" s="7">
         <v>1</v>
       </c>
-      <c r="B22" s="16">
-        <v>10</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16">
+      <c r="B22" s="20">
+        <v>10</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
         <v>30</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="42" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="42"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="20">
         <v>30</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
         <v>45</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="20" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3.1</v>
       </c>
-      <c r="B24" s="16">
-        <v>10</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="51" t="s">
+      <c r="B24" s="20">
+        <v>10</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>10</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="54" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1307,466 +1400,466 @@
       <c r="A25" s="7">
         <v>3.2</v>
       </c>
-      <c r="B25" s="16">
-        <v>10</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16">
-        <v>10</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="20">
+        <v>10</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <v>10</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>3.3</v>
       </c>
-      <c r="B26" s="16">
-        <v>10</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16">
-        <v>10</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="20">
+        <v>10</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <v>10</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="16">
-        <v>10</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16">
-        <v>10</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="20">
+        <v>10</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20">
+        <v>10</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="16">
-        <v>10</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16">
-        <v>10</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="52"/>
+      <c r="B28" s="20">
+        <v>10</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
+        <v>10</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="20">
         <v>15</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
         <v>15</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="52"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="16">
-        <v>5</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16">
-        <v>5</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="52"/>
+      <c r="B30" s="20">
+        <v>5</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
+        <v>5</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="20">
         <v>15</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20">
         <v>30</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="32" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="52"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="16">
-        <v>10</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16">
-        <v>10</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="32" t="s">
+      <c r="B32" s="20">
+        <v>10</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
+        <v>10</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="52"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="20">
         <v>40</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20">
         <v>70</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="32" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16">
-        <v>10</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16">
-        <v>10</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="32" t="s">
+      <c r="B34" s="20">
+        <v>10</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
+        <v>10</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="52"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="20">
         <v>45</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20">
         <v>70</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="32" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="53"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>4</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="23">
         <v>1</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11">
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="23">
         <v>1</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>5</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="23">
         <v>20</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11">
-        <v>10</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="26" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="23">
+        <v>10</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16">
-        <v>10</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16">
-        <v>10</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="B38" s="20">
+        <v>10</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20">
+        <v>10</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="16">
-        <v>5</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16">
-        <v>5</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
+      <c r="B39" s="20">
+        <v>5</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20">
+        <v>5</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="20">
         <v>15</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
         <v>30</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="20">
         <v>20</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20">
         <v>30</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="19" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>7.1</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="20">
         <v>3</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20">
         <v>3</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="20" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>7.2</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="20">
         <v>40</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20">
         <v>40</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>7.3</v>
       </c>
-      <c r="B44" s="16">
-        <v>10</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16">
-        <v>10</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
+      <c r="B44" s="20">
+        <v>10</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20">
+        <v>10</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>7.4</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="20">
         <v>40</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20">
         <v>40</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="20">
         <v>45</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20">
         <v>60</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="35" t="s">
+      <c r="F46" s="20"/>
+      <c r="G46" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="36"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="20">
         <v>50</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20">
         <v>60</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>9</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="20">
         <v>45</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20">
         <v>90</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="34" t="s">
+      <c r="F48" s="20"/>
+      <c r="G48" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="34"/>
+      <c r="H48" s="43"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>10</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="20">
         <v>45</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20">
         <v>30</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="34" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="34"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="39"/>
+      <c r="B54" s="35"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="4" t="s">
         <v>3</v>
       </c>
@@ -1783,115 +1876,115 @@
       <c r="A56" s="7">
         <v>1</v>
       </c>
-      <c r="B56" s="16">
-        <v>5</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16">
-        <v>5</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
+      <c r="B56" s="20">
+        <v>5</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20">
+        <v>5</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="16"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>2.1</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="20">
         <v>3</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20">
         <v>3</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="20" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B58" s="16">
-        <v>10</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16">
+      <c r="B58" s="20">
+        <v>10</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20">
         <v>20</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="14" t="s">
+      <c r="F58" s="20"/>
+      <c r="G58" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B59" s="16">
-        <v>5</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16">
-        <v>5</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="14" t="s">
+      <c r="B59" s="20">
+        <v>5</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20">
+        <v>5</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="G59" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>2.4</v>
       </c>
-      <c r="B60" s="16">
-        <v>10</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16">
-        <v>10</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="14" t="s">
+      <c r="B60" s="20">
+        <v>10</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20">
+        <v>10</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>3.1</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="23">
         <v>2</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="11">
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="23">
         <v>2</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14" t="s">
+      <c r="F61" s="25"/>
+      <c r="G61" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="52" t="s">
+      <c r="H61" s="18"/>
+      <c r="I61" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1899,270 +1992,270 @@
       <c r="A62" s="7">
         <v>3.2</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="23">
         <v>2</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="11">
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="23">
         <v>3</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="52"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>3.3</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="23">
         <v>2</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="11">
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="23">
         <v>2</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="52"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>3.4</v>
       </c>
-      <c r="B64" s="11">
-        <v>5</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="11">
-        <v>5</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="52"/>
+      <c r="B64" s="23">
+        <v>5</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="23">
+        <v>5</v>
+      </c>
+      <c r="F64" s="25"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>3.5</v>
       </c>
-      <c r="B65" s="11">
-        <v>5</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="11">
-        <v>5</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="52"/>
+      <c r="B65" s="23">
+        <v>5</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="23">
+        <v>5</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>3.6</v>
       </c>
-      <c r="B66" s="16">
-        <v>10</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16">
-        <v>10</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="52"/>
+      <c r="B66" s="20">
+        <v>10</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20">
+        <v>10</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>3.7</v>
       </c>
-      <c r="B67" s="16">
-        <v>10</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16">
-        <v>10</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="52"/>
+      <c r="B67" s="20">
+        <v>10</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20">
+        <v>10</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>3.8</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="20">
         <v>15</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20">
         <v>15</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="52"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>3.9</v>
       </c>
-      <c r="B69" s="16">
-        <v>5</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16">
-        <v>5</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="52"/>
+      <c r="B69" s="20">
+        <v>5</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20">
+        <v>5</v>
+      </c>
+      <c r="F69" s="20"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>3.1</v>
       </c>
-      <c r="B70" s="16">
-        <v>5</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16">
-        <v>10</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="32" t="s">
+      <c r="B70" s="20">
+        <v>5</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20">
+        <v>10</v>
+      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H70" s="33"/>
-      <c r="I70" s="52"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>3.11</v>
       </c>
-      <c r="B71" s="16">
-        <v>10</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16">
+      <c r="B71" s="20">
+        <v>10</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20">
         <v>15</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="32" t="s">
+      <c r="F71" s="20"/>
+      <c r="G71" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H71" s="33"/>
-      <c r="I71" s="52"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>4</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="20">
         <v>20</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20">
         <v>120</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="32" t="s">
+      <c r="F72" s="20"/>
+      <c r="G72" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H72" s="33"/>
+      <c r="H72" s="34"/>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="20">
         <v>20</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16">
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20">
         <v>20</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="32" t="s">
+      <c r="F73" s="20"/>
+      <c r="G73" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="33"/>
+      <c r="H73" s="34"/>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>5.2</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="20">
         <v>20</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16">
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20">
         <v>30</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="32" t="s">
+      <c r="F74" s="20"/>
+      <c r="G74" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="33"/>
+      <c r="H74" s="34"/>
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>5.3</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="23">
         <v>30</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="11">
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="23">
         <v>30</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="24" t="s">
+      <c r="F75" s="25"/>
+      <c r="G75" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="25"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>6.1</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="23">
         <v>3</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="11">
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="23">
         <v>3</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="26" t="s">
+      <c r="F76" s="25"/>
+      <c r="G76" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="27"/>
-      <c r="I76" s="51" t="s">
+      <c r="H76" s="31"/>
+      <c r="I76" s="54" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2170,88 +2263,88 @@
       <c r="A77" s="7">
         <v>6.2</v>
       </c>
-      <c r="B77" s="16">
-        <v>5</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16">
-        <v>5</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="52"/>
+      <c r="B77" s="20">
+        <v>5</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20">
+        <v>5</v>
+      </c>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>6.3</v>
       </c>
-      <c r="B78" s="16">
-        <v>5</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16">
-        <v>5</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="52"/>
+      <c r="B78" s="20">
+        <v>5</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20">
+        <v>5</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>6.4</v>
       </c>
-      <c r="B79" s="16">
-        <v>5</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16">
-        <v>5</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="52"/>
+      <c r="B79" s="20">
+        <v>5</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20">
+        <v>5</v>
+      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>6.5</v>
       </c>
-      <c r="B80" s="16">
-        <v>5</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16">
+      <c r="B80" s="20">
+        <v>5</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20">
         <v>6</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="53"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>7</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="20">
         <v>3</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16">
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20">
         <v>3</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="11" t="s">
+      <c r="F81" s="20"/>
+      <c r="G81" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="54" t="s">
+      <c r="H81" s="25"/>
+      <c r="I81" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2259,96 +2352,96 @@
       <c r="A82" s="7">
         <v>9.1</v>
       </c>
-      <c r="B82" s="16">
-        <v>10</v>
-      </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16">
+      <c r="B82" s="20">
+        <v>10</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20">
         <v>15</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="20" t="s">
+      <c r="F82" s="20"/>
+      <c r="G82" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H82" s="21"/>
+      <c r="H82" s="39"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="20">
         <v>0</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16">
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20">
         <v>0</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="20" t="s">
+      <c r="F83" s="20"/>
+      <c r="G83" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H83" s="21"/>
+      <c r="H83" s="39"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="20">
         <v>20</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20">
         <v>30</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="20" t="s">
+      <c r="F84" s="20"/>
+      <c r="G84" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H84" s="21"/>
+      <c r="H84" s="39"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>10</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="20">
         <v>45</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16">
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20">
         <v>60</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="26" t="s">
+      <c r="F85" s="20"/>
+      <c r="G85" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H85" s="27"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>11.1</v>
       </c>
-      <c r="B86" s="16">
-        <v>5</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16">
-        <v>5</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="26" t="s">
+      <c r="B86" s="20">
+        <v>5</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20">
+        <v>5</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="G86" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H86" s="27"/>
-      <c r="I86" s="51" t="s">
+      <c r="H86" s="31"/>
+      <c r="I86" s="54" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2356,63 +2449,1039 @@
       <c r="A87" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="20">
         <v>20</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16">
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20">
         <v>30</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17" t="s">
+      <c r="F87" s="20"/>
+      <c r="G87" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="52"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="16">
-        <v>5</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16">
-        <v>5</v>
-      </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17" t="s">
+      <c r="B88" s="20">
+        <v>5</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20">
+        <v>5</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="52"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="23">
         <v>3</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="11">
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="23">
         <v>3</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="11" t="s">
+      <c r="F89" s="25"/>
+      <c r="G89" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="53"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="32"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="35"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B97" s="20">
+        <v>10</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20">
+        <v>10</v>
+      </c>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B98" s="20">
+        <v>5</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20">
+        <v>5</v>
+      </c>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="22"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B99" s="20">
+        <v>20</v>
+      </c>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20">
+        <v>25</v>
+      </c>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="22"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B100" s="20">
+        <v>3</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20">
+        <v>3</v>
+      </c>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="22"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B101" s="20">
+        <v>3</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20">
+        <v>3</v>
+      </c>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="22"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B102" s="23">
+        <v>10</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="23">
+        <v>10</v>
+      </c>
+      <c r="F102" s="25"/>
+      <c r="G102" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B103" s="23">
+        <v>10</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="23">
+        <v>15</v>
+      </c>
+      <c r="F103" s="25"/>
+      <c r="G103" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B104" s="23">
+        <v>1</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="23">
+        <v>1</v>
+      </c>
+      <c r="F104" s="25"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>3</v>
+      </c>
+      <c r="B105" s="23">
+        <v>30</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="23">
+        <v>35</v>
+      </c>
+      <c r="F105" s="25"/>
+      <c r="G105" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" s="18"/>
+      <c r="I105" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B106" s="23">
+        <v>5</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="23">
+        <v>5</v>
+      </c>
+      <c r="F106" s="25"/>
+      <c r="G106" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H106" s="14"/>
+      <c r="I106" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="B107" s="20">
+        <v>10</v>
+      </c>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20">
+        <v>10</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="B108" s="20">
+        <v>10</v>
+      </c>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20">
+        <v>10</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B109" s="20">
+        <v>10</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20">
+        <v>10</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="B110" s="20">
+        <v>10</v>
+      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20">
+        <v>10</v>
+      </c>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B111" s="20">
+        <v>10</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20">
+        <v>10</v>
+      </c>
+      <c r="F111" s="20"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>5</v>
+      </c>
+      <c r="B112" s="20">
+        <v>30</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20">
+        <v>30</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H112" s="34"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="B113" s="20">
+        <v>1</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20">
+        <v>1</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="34"/>
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="B114" s="20">
+        <v>0</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20">
+        <v>0</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" s="34"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="B115" s="20">
+        <v>3</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20">
+        <v>3</v>
+      </c>
+      <c r="F115" s="20"/>
+      <c r="G115" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" s="34"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="B116" s="23">
+        <v>3</v>
+      </c>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="23">
+        <v>3</v>
+      </c>
+      <c r="F116" s="25"/>
+      <c r="G116" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="29"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="B117" s="23">
+        <v>3</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="23">
+        <v>3</v>
+      </c>
+      <c r="F117" s="25"/>
+      <c r="G117" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="31"/>
+      <c r="I117" s="8"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" s="20">
+        <v>30</v>
+      </c>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20">
+        <v>30</v>
+      </c>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" s="14"/>
+      <c r="I118" s="19"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B119" s="20">
+        <v>30</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20">
+        <v>30</v>
+      </c>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="19"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="20">
+        <v>40</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20">
+        <v>45</v>
+      </c>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" s="20">
+        <v>45</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20">
+        <v>60</v>
+      </c>
+      <c r="F121" s="20"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="32"/>
+    </row>
+    <row r="122" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>8</v>
+      </c>
+      <c r="B122" s="23">
+        <v>240</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="23">
+        <v>600</v>
+      </c>
+      <c r="F122" s="25"/>
+      <c r="G122" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="27"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="35"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B131" s="20">
+        <v>3</v>
+      </c>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20">
+        <v>3</v>
+      </c>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B132" s="20">
+        <v>2</v>
+      </c>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20">
+        <v>2</v>
+      </c>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B133" s="20">
+        <v>20</v>
+      </c>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20">
+        <v>20</v>
+      </c>
+      <c r="F133" s="20"/>
+      <c r="G133" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" s="37"/>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B134" s="38">
+        <v>180</v>
+      </c>
+      <c r="C134" s="63"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="38">
+        <v>240</v>
+      </c>
+      <c r="F134" s="39"/>
+      <c r="G134" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" s="31"/>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B135" s="17"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B136" s="17"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="B137" s="17"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="B138" s="17"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="19"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="40"/>
+      <c r="C139" s="61"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B140" s="23">
+        <v>3</v>
+      </c>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="23">
+        <v>3</v>
+      </c>
+      <c r="F140" s="25"/>
+      <c r="G140" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20">
+        <v>10</v>
+      </c>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="19"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B142" s="20">
+        <v>10</v>
+      </c>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20">
+        <v>10</v>
+      </c>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="19"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B143" s="20">
+        <v>10</v>
+      </c>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20">
+        <v>10</v>
+      </c>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="19"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B144" s="20">
+        <v>10</v>
+      </c>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20">
+        <v>10</v>
+      </c>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="19"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B145" s="20">
+        <v>10</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20">
+        <v>10</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="19"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B146" s="20">
+        <v>30</v>
+      </c>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20">
+        <v>30</v>
+      </c>
+      <c r="F146" s="20"/>
+      <c r="G146" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H146" s="34"/>
+      <c r="I146" s="9"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="20">
+        <v>1</v>
+      </c>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20"/>
+      <c r="G147" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H147" s="34"/>
+      <c r="I147" s="9"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="20">
+        <v>0</v>
+      </c>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20">
+        <v>0</v>
+      </c>
+      <c r="F148" s="20"/>
+      <c r="G148" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H148" s="34"/>
+      <c r="I148" s="9"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="20">
+        <v>3</v>
+      </c>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20">
+        <v>3</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="G149" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H149" s="34"/>
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="23">
+        <v>3</v>
+      </c>
+      <c r="C150" s="24"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="23">
+        <v>3</v>
+      </c>
+      <c r="F150" s="25"/>
+      <c r="G150" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H150" s="29"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B151" s="20">
+        <v>3</v>
+      </c>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20">
+        <v>3</v>
+      </c>
+      <c r="F151" s="20"/>
+      <c r="G151" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H151" s="37"/>
+      <c r="I151" s="62"/>
+    </row>
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B152" s="20">
+        <v>30</v>
+      </c>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20">
+        <v>30</v>
+      </c>
+      <c r="F152" s="20"/>
+      <c r="G152" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H152" s="37"/>
+      <c r="I152" s="62"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E153" s="64"/>
+      <c r="F153" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="I61:I71"/>
-    <mergeCell ref="I76:I80"/>
+  <mergeCells count="341">
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="B134:D139"/>
+    <mergeCell ref="E134:F139"/>
+    <mergeCell ref="G134:H139"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H145"/>
+    <mergeCell ref="I140:I145"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:I136"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
     <mergeCell ref="I86:I89"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="G86:H86"/>
@@ -2421,10 +3490,16 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G23:H30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H39"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="G42:H45"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:F27"/>
@@ -2432,6 +3507,8 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I61:I71"/>
+    <mergeCell ref="I76:I80"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="B25:D25"/>
@@ -2442,7 +3519,6 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="B34:D34"/>
@@ -2451,14 +3527,10 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -2472,6 +3544,8 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -2488,9 +3562,21 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
@@ -2501,25 +3587,15 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="B61:D61"/>
@@ -2530,18 +3606,6 @@
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G42:H45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
@@ -2556,7 +3620,7 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="B58:D58"/>
@@ -2574,6 +3638,13 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="G61:H69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:F69"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="G72:H72"/>
@@ -2583,6 +3654,13 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="G74:H74"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="G75:H75"/>
@@ -2594,18 +3672,6 @@
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="G76:H80"/>
     <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="G89:H89"/>
@@ -2625,6 +3691,86 @@
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I106:I111"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G106:H111"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I97:I102"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H121"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" xr:uid="{A4DFC6D2-4F32-4C1F-8326-483BC7CC3334}"/>
@@ -2634,6 +3780,14 @@
     <hyperlink ref="I76:I80" r:id="rId5" display="Aufgabe 6" xr:uid="{27DB3480-C516-410A-8ACB-2AC4BF9DB94C}"/>
     <hyperlink ref="I81" r:id="rId6" xr:uid="{0FD3E46C-0788-47B1-A06C-BD4AD4EFD376}"/>
     <hyperlink ref="I86:I89" r:id="rId7" display="Aufgabe 11bc" xr:uid="{BC04F16B-76DA-4BD5-A340-2E5DB9801BDB}"/>
+    <hyperlink ref="I106:I111" r:id="rId8" display="Aufgabe M4" xr:uid="{80A95E1F-C500-4225-AB4D-E7F99668EC95}"/>
+    <hyperlink ref="I103:I104" r:id="rId9" display="Aufgabe M4" xr:uid="{35FDF51C-FCF4-4271-982D-3F409C2DF3DC}"/>
+    <hyperlink ref="I97:I102" r:id="rId10" display="Aufgabe M4" xr:uid="{F8BA063B-8979-4037-A4F7-0AB6E1FF8FD7}"/>
+    <hyperlink ref="I105" r:id="rId11" xr:uid="{D7A33BAC-DBBC-4A0B-A016-E312B867CE82}"/>
+    <hyperlink ref="I140:I145" r:id="rId12" display="Aufgabe M4" xr:uid="{8152972C-6A05-4787-95CA-3418E8BEB031}"/>
+    <hyperlink ref="I137:I138" r:id="rId13" display="Aufgabe M4" xr:uid="{CD710502-2CB5-4034-ADC9-D5D2057EBA2E}"/>
+    <hyperlink ref="I131:I136" r:id="rId14" display="Aufgabe M4" xr:uid="{FD06F3B8-85FE-4962-9191-EB2179C17D47}"/>
+    <hyperlink ref="I139" r:id="rId15" xr:uid="{04EDC238-49C8-43C6-84C8-8A5FC61D80A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/E-Mensa Werbeseite/Dossier.xlsx
+++ b/E-Mensa Werbeseite/Dossier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deutschland\FH Aachen\3.Sem\DBWT\DBWT_Praktikum\E-Mensa Werbeseite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34A6F7B-1DB4-4CDD-BF34-3E16494920DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF8DF1-1353-4B1F-B56A-6262320CAD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{45FF241A-0886-49EC-98D9-701E51500B20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>Dossier DBWT Praktikum 1</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t xml:space="preserve">Problem beim Anzeigen des Nachrichts von fehlgeschlagenen Anmeldungen und beim try() and catch(). Muss selbst eine eigene Klasse implementieren, um alle EIGENE Exception dazu hinzufügen. </t>
+  </si>
+  <si>
+    <t>Problem bei  Herunterladen den Package für monolog</t>
+  </si>
+  <si>
+    <t>Herausfinden den Weg zur Hinzufügen die Fotos in Datenbank automatish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe: </t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>Aufgabe 5c</t>
   </si>
 </sst>
 </file>
@@ -480,7 +495,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -510,6 +525,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,51 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,33 +624,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,21 +669,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1003,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699768BC-4EC1-4FC2-B47D-64D2C1643E17}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153:F153"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,20 +1043,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1047,176 +1073,176 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="42">
-        <v>5</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42">
-        <v>5</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="43">
+        <v>5</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43">
+        <v>5</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <v>1</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>15</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
         <v>15</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="43">
         <v>15</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
         <v>11</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42">
-        <v>10</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42">
-        <v>10</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="B8" s="43">
+        <v>10</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43">
+        <v>10</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="42">
-        <v>5</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42">
+      <c r="B9" s="43">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43">
         <v>2</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="42">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42">
-        <v>10</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="43">
+        <v>10</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
+        <v>10</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="42">
-        <v>5</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42">
-        <v>5</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="43">
+        <v>5</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43">
+        <v>5</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="43">
         <v>30</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43">
         <v>30</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="43">
         <v>30</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43">
         <v>40</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1225,32 +1251,32 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="42">
-        <v>10</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42">
+      <c r="B14" s="43">
+        <v>10</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43">
         <v>60</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="43">
         <v>30</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43">
         <v>40</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="48" t="s">
         <v>17</v>
       </c>
@@ -1261,15 +1287,15 @@
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="43">
         <v>60</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43">
         <v>60</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="50"/>
       <c r="H16" s="51"/>
       <c r="I16" s="1"/>
@@ -1278,15 +1304,15 @@
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="43">
         <v>120</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43">
         <v>180</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="52"/>
       <c r="H17" s="53"/>
       <c r="I17" s="1"/>
@@ -1295,15 +1321,15 @@
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="25">
         <v>180</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28">
+      <c r="C18" s="45"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25">
         <v>300</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="46" t="s">
         <v>18</v>
       </c>
@@ -1312,20 +1338,20 @@
       <c r="N18" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1343,56 +1369,56 @@
       <c r="A22" s="7">
         <v>1</v>
       </c>
-      <c r="B22" s="20">
-        <v>10</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
+      <c r="B22" s="17">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
         <v>30</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="45" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>2</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="17">
         <v>30</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
         <v>45</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="38" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3.1</v>
       </c>
-      <c r="B24" s="20">
-        <v>10</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
-        <v>10</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="54" t="s">
+      <c r="B24" s="17">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
+        <v>10</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="55" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1400,466 +1426,466 @@
       <c r="A25" s="7">
         <v>3.2</v>
       </c>
-      <c r="B25" s="20">
-        <v>10</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20">
-        <v>10</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="B25" s="17">
+        <v>10</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
+        <v>10</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>3.3</v>
       </c>
-      <c r="B26" s="20">
-        <v>10</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20">
-        <v>10</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
+      <c r="B26" s="17">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17">
+        <v>10</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="20">
-        <v>10</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20">
-        <v>10</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
+      <c r="B27" s="17">
+        <v>10</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
+        <v>10</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="20">
-        <v>10</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20">
-        <v>10</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="B28" s="17">
+        <v>10</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17">
+        <v>10</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="17">
         <v>15</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17">
         <v>15</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="20">
-        <v>5</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20">
-        <v>5</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="19"/>
+      <c r="B30" s="17">
+        <v>5</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17">
+        <v>5</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="17">
         <v>15</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17">
         <v>30</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="33" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="20">
-        <v>10</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
-        <v>10</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="33" t="s">
+      <c r="B32" s="17">
+        <v>10</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17">
+        <v>10</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="17">
         <v>40</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17">
         <v>70</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="33" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="19"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="20">
-        <v>10</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
-        <v>10</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="33" t="s">
+      <c r="B34" s="17">
+        <v>10</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17">
+        <v>10</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="19"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="17">
         <v>45</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17">
         <v>70</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="33" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="32"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>4</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="20">
         <v>1</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23">
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="20">
         <v>1</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>5</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="20">
         <v>20</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="23">
-        <v>10</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="30" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="20">
+        <v>10</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="31"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="20">
-        <v>10</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20">
-        <v>10</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
+      <c r="B38" s="17">
+        <v>10</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17">
+        <v>10</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="20">
-        <v>5</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20">
-        <v>5</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
+      <c r="B39" s="17">
+        <v>5</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17">
+        <v>5</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="17">
         <v>15</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17">
         <v>30</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="42" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="17">
         <v>20</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17">
         <v>30</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="55" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="55"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>7.1</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17">
         <v>3</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="38" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>7.2</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="17">
         <v>40</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17">
         <v>40</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>7.3</v>
       </c>
-      <c r="B44" s="20">
-        <v>10</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20">
-        <v>10</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
+      <c r="B44" s="17">
+        <v>10</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17">
+        <v>10</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>7.4</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="17">
         <v>40</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17">
         <v>40</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="17">
         <v>45</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17">
         <v>60</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="56" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="57"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="17">
         <v>50</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17">
         <v>60</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>9</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="17">
         <v>45</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17">
         <v>90</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="43" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="43"/>
+      <c r="H48" s="44"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>10</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="17">
         <v>45</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17">
         <v>30</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="43" t="s">
+      <c r="F49" s="17"/>
+      <c r="G49" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="43"/>
+      <c r="H49" s="44"/>
       <c r="I49" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="36"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="4" t="s">
         <v>3</v>
       </c>
@@ -1876,115 +1902,115 @@
       <c r="A56" s="7">
         <v>1</v>
       </c>
-      <c r="B56" s="20">
-        <v>5</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20">
-        <v>5</v>
-      </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20" t="s">
+      <c r="B56" s="17">
+        <v>5</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17">
+        <v>5</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="20"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>2.1</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="17">
         <v>3</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20">
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17">
         <v>3</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="38" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B58" s="20">
-        <v>10</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20">
+      <c r="B58" s="17">
+        <v>10</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17">
         <v>20</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="18"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B59" s="20">
-        <v>5</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20">
-        <v>5</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="17" t="s">
+      <c r="B59" s="17">
+        <v>5</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17">
+        <v>5</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="18"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>2.4</v>
       </c>
-      <c r="B60" s="20">
-        <v>10</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20">
-        <v>10</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="17" t="s">
+      <c r="B60" s="17">
+        <v>10</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17">
+        <v>10</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>3.1</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="20">
         <v>2</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="23">
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="20">
         <v>2</v>
       </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="17" t="s">
+      <c r="F61" s="22"/>
+      <c r="G61" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19" t="s">
+      <c r="H61" s="15"/>
+      <c r="I61" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1992,270 +2018,270 @@
       <c r="A62" s="7">
         <v>3.2</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="20">
         <v>2</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="23">
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="20">
         <v>3</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>3.3</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="20">
         <v>2</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="23">
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="20">
         <v>2</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>3.4</v>
       </c>
-      <c r="B64" s="23">
-        <v>5</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="23">
-        <v>5</v>
-      </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
+      <c r="B64" s="20">
+        <v>5</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="20">
+        <v>5</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>3.5</v>
       </c>
-      <c r="B65" s="23">
-        <v>5</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="23">
-        <v>5</v>
-      </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="19"/>
+      <c r="B65" s="20">
+        <v>5</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="20">
+        <v>5</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>3.6</v>
       </c>
-      <c r="B66" s="20">
-        <v>10</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20">
-        <v>10</v>
-      </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="B66" s="17">
+        <v>10</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17">
+        <v>10</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>3.7</v>
       </c>
-      <c r="B67" s="20">
-        <v>10</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20">
-        <v>10</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="19"/>
+      <c r="B67" s="17">
+        <v>10</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17">
+        <v>10</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>3.8</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="17">
         <v>15</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20">
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17">
         <v>15</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>3.9</v>
       </c>
-      <c r="B69" s="20">
-        <v>5</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20">
-        <v>5</v>
-      </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="19"/>
+      <c r="B69" s="17">
+        <v>5</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17">
+        <v>5</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>3.1</v>
       </c>
-      <c r="B70" s="20">
-        <v>5</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20">
-        <v>10</v>
-      </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="33" t="s">
+      <c r="B70" s="17">
+        <v>5</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17">
+        <v>10</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="19"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>3.11</v>
       </c>
-      <c r="B71" s="20">
-        <v>10</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20">
+      <c r="B71" s="17">
+        <v>10</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17">
         <v>15</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="33" t="s">
+      <c r="F71" s="17"/>
+      <c r="G71" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H71" s="34"/>
-      <c r="I71" s="19"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>4</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="17">
         <v>20</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17">
         <v>120</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="33" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H72" s="34"/>
+      <c r="H72" s="35"/>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="17">
         <v>20</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20">
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17">
         <v>20</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="33" t="s">
+      <c r="F73" s="17"/>
+      <c r="G73" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="34"/>
+      <c r="H73" s="35"/>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>5.2</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="17">
         <v>20</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20">
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17">
         <v>30</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="33" t="s">
+      <c r="F74" s="17"/>
+      <c r="G74" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="34"/>
+      <c r="H74" s="35"/>
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>5.3</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="20">
         <v>30</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="23">
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="20">
         <v>30</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="28" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="29"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>6.1</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="20">
         <v>3</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="23">
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="20">
         <v>3</v>
       </c>
-      <c r="F76" s="25"/>
-      <c r="G76" s="30" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="31"/>
-      <c r="I76" s="54" t="s">
+      <c r="H76" s="28"/>
+      <c r="I76" s="55" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2263,87 +2289,87 @@
       <c r="A77" s="7">
         <v>6.2</v>
       </c>
-      <c r="B77" s="20">
-        <v>5</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20">
-        <v>5</v>
-      </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="19"/>
+      <c r="B77" s="17">
+        <v>5</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17">
+        <v>5</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>6.3</v>
       </c>
-      <c r="B78" s="20">
-        <v>5</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20">
-        <v>5</v>
-      </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="19"/>
+      <c r="B78" s="17">
+        <v>5</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17">
+        <v>5</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>6.4</v>
       </c>
-      <c r="B79" s="20">
-        <v>5</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20">
-        <v>5</v>
-      </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="19"/>
+      <c r="B79" s="17">
+        <v>5</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17">
+        <v>5</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>6.5</v>
       </c>
-      <c r="B80" s="20">
-        <v>5</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20">
+      <c r="B80" s="17">
+        <v>5</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17">
         <v>6</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="32"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>7</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="17">
         <v>3</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20">
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17">
         <v>3</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="23" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H81" s="25"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="12" t="s">
         <v>55</v>
       </c>
@@ -2352,96 +2378,96 @@
       <c r="A82" s="7">
         <v>9.1</v>
       </c>
-      <c r="B82" s="20">
-        <v>10</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20">
+      <c r="B82" s="17">
+        <v>10</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17">
         <v>15</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="38" t="s">
+      <c r="F82" s="17"/>
+      <c r="G82" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="40"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B83" s="20">
+      <c r="B83" s="17">
         <v>0</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17">
         <v>0</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="38" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="40"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="17">
         <v>20</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20">
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17">
         <v>30</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="38" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>10</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="17">
         <v>45</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20">
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17">
         <v>60</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="30" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H85" s="31"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>11.1</v>
       </c>
-      <c r="B86" s="20">
-        <v>5</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20">
-        <v>5</v>
-      </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="30" t="s">
+      <c r="B86" s="17">
+        <v>5</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17">
+        <v>5</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H86" s="31"/>
-      <c r="I86" s="54" t="s">
+      <c r="H86" s="28"/>
+      <c r="I86" s="55" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2449,74 +2475,74 @@
       <c r="A87" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="17">
         <v>20</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17">
         <v>30</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="37" t="s">
+      <c r="F87" s="17"/>
+      <c r="G87" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="19"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="20">
-        <v>5</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20">
-        <v>5</v>
-      </c>
-      <c r="F88" s="20"/>
-      <c r="G88" s="37" t="s">
+      <c r="B88" s="17">
+        <v>5</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17">
+        <v>5</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H88" s="37"/>
-      <c r="I88" s="19"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="20">
         <v>3</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="23">
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="20">
         <v>3</v>
       </c>
-      <c r="F89" s="25"/>
-      <c r="G89" s="23" t="s">
+      <c r="F89" s="22"/>
+      <c r="G89" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="32"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="33"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="35"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="4" t="s">
         <v>3</v>
       </c>
@@ -2533,20 +2559,20 @@
       <c r="A97" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B97" s="20">
-        <v>10</v>
-      </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20">
-        <v>10</v>
-      </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20" t="s">
+      <c r="B97" s="17">
+        <v>10</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17">
+        <v>10</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21" t="s">
+      <c r="H97" s="17"/>
+      <c r="I97" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2554,115 +2580,115 @@
       <c r="A98" s="7">
         <v>1.2</v>
       </c>
-      <c r="B98" s="20">
-        <v>5</v>
-      </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20">
-        <v>5</v>
-      </c>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20" t="s">
+      <c r="B98" s="17">
+        <v>5</v>
+      </c>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17">
+        <v>5</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H98" s="20"/>
-      <c r="I98" s="22"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>1.3</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="17">
         <v>20</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17">
         <v>25</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20" t="s">
+      <c r="F99" s="17"/>
+      <c r="G99" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="20"/>
-      <c r="I99" s="22"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>1.4</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="17">
         <v>3</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20">
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17">
         <v>3</v>
       </c>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20" t="s">
+      <c r="F100" s="17"/>
+      <c r="G100" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="22"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>1.5</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="17">
         <v>3</v>
       </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20">
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17">
         <v>3</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20" t="s">
+      <c r="F101" s="17"/>
+      <c r="G101" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H101" s="20"/>
-      <c r="I101" s="22"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>1.6</v>
       </c>
-      <c r="B102" s="23">
-        <v>10</v>
-      </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="23">
-        <v>10</v>
-      </c>
-      <c r="F102" s="25"/>
-      <c r="G102" s="20" t="s">
+      <c r="B102" s="20">
+        <v>10</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="20">
+        <v>10</v>
+      </c>
+      <c r="F102" s="22"/>
+      <c r="G102" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H102" s="20"/>
-      <c r="I102" s="22"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>2.1</v>
       </c>
-      <c r="B103" s="23">
-        <v>10</v>
-      </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="23">
+      <c r="B103" s="20">
+        <v>10</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="20">
         <v>15</v>
       </c>
-      <c r="F103" s="25"/>
-      <c r="G103" s="17" t="s">
+      <c r="F103" s="22"/>
+      <c r="G103" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H103" s="18"/>
-      <c r="I103" s="19" t="s">
+      <c r="H103" s="15"/>
+      <c r="I103" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2670,36 +2696,36 @@
       <c r="A104" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="20">
         <v>1</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="23">
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="20">
         <v>1</v>
       </c>
-      <c r="F104" s="25"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="19"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>3</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="20">
         <v>30</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="23">
+      <c r="C105" s="21"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="20">
         <v>35</v>
       </c>
-      <c r="F105" s="25"/>
-      <c r="G105" s="17" t="s">
+      <c r="F105" s="22"/>
+      <c r="G105" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H105" s="18"/>
+      <c r="H105" s="15"/>
       <c r="I105" s="11" t="s">
         <v>34</v>
       </c>
@@ -2708,20 +2734,20 @@
       <c r="A106" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B106" s="23">
-        <v>5</v>
-      </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="23">
-        <v>5</v>
-      </c>
-      <c r="F106" s="25"/>
-      <c r="G106" s="13" t="s">
+      <c r="B106" s="20">
+        <v>5</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="20">
+        <v>5</v>
+      </c>
+      <c r="F106" s="22"/>
+      <c r="G106" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="19" t="s">
+      <c r="H106" s="30"/>
+      <c r="I106" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2729,305 +2755,305 @@
       <c r="A107" s="7">
         <v>4.2</v>
       </c>
-      <c r="B107" s="20">
-        <v>10</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20">
-        <v>10</v>
-      </c>
-      <c r="F107" s="20"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="19"/>
+      <c r="B107" s="17">
+        <v>10</v>
+      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17">
+        <v>10</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>4.3</v>
       </c>
-      <c r="B108" s="20">
-        <v>10</v>
-      </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20">
-        <v>10</v>
-      </c>
-      <c r="F108" s="20"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="19"/>
+      <c r="B108" s="17">
+        <v>10</v>
+      </c>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17">
+        <v>10</v>
+      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B109" s="20">
-        <v>10</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20">
-        <v>10</v>
-      </c>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="19"/>
+      <c r="B109" s="17">
+        <v>10</v>
+      </c>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17">
+        <v>10</v>
+      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>4.5</v>
       </c>
-      <c r="B110" s="20">
-        <v>10</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20">
-        <v>10</v>
-      </c>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="19"/>
+      <c r="B110" s="17">
+        <v>10</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17">
+        <v>10</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B111" s="20">
-        <v>10</v>
-      </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20">
-        <v>10</v>
-      </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="19"/>
+      <c r="B111" s="17">
+        <v>10</v>
+      </c>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17">
+        <v>10</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>5</v>
       </c>
-      <c r="B112" s="20">
+      <c r="B112" s="17">
         <v>30</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20">
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17">
         <v>30</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="33" t="s">
+      <c r="F112" s="17"/>
+      <c r="G112" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H112" s="34"/>
+      <c r="H112" s="35"/>
       <c r="I112" s="9"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>6.1</v>
       </c>
-      <c r="B113" s="20">
+      <c r="B113" s="17">
         <v>1</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20">
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17">
         <v>1</v>
       </c>
-      <c r="F113" s="20"/>
-      <c r="G113" s="33" t="s">
+      <c r="F113" s="17"/>
+      <c r="G113" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H113" s="34"/>
+      <c r="H113" s="35"/>
       <c r="I113" s="9"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>6.2</v>
       </c>
-      <c r="B114" s="20">
+      <c r="B114" s="17">
         <v>0</v>
       </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20">
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17">
         <v>0</v>
       </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="33" t="s">
+      <c r="F114" s="17"/>
+      <c r="G114" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H114" s="34"/>
+      <c r="H114" s="35"/>
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>6.3</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="17">
         <v>3</v>
       </c>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20">
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17">
         <v>3</v>
       </c>
-      <c r="F115" s="20"/>
-      <c r="G115" s="33" t="s">
+      <c r="F115" s="17"/>
+      <c r="G115" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H115" s="34"/>
+      <c r="H115" s="35"/>
       <c r="I115" s="10"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>6.4</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="20">
         <v>3</v>
       </c>
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="23">
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="20">
         <v>3</v>
       </c>
-      <c r="F116" s="25"/>
-      <c r="G116" s="28" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H116" s="29"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>6.5</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="20">
         <v>3</v>
       </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="23">
+      <c r="C117" s="21"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="20">
         <v>3</v>
       </c>
-      <c r="F117" s="25"/>
-      <c r="G117" s="30" t="s">
+      <c r="F117" s="22"/>
+      <c r="G117" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H117" s="31"/>
+      <c r="H117" s="28"/>
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="17">
         <v>30</v>
       </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20">
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17">
         <v>30</v>
       </c>
-      <c r="F118" s="20"/>
-      <c r="G118" s="13" t="s">
+      <c r="F118" s="17"/>
+      <c r="G118" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H118" s="14"/>
-      <c r="I118" s="19"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="20">
+      <c r="B119" s="17">
         <v>30</v>
       </c>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20">
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17">
         <v>30</v>
       </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="19"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="17">
         <v>40</v>
       </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20">
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17">
         <v>45</v>
       </c>
-      <c r="F120" s="20"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="19"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B121" s="20">
+      <c r="B121" s="17">
         <v>45</v>
       </c>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20">
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17">
         <v>60</v>
       </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="32"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="33"/>
     </row>
     <row r="122" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>8</v>
       </c>
-      <c r="B122" s="23">
+      <c r="B122" s="20">
         <v>240</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="23">
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="20">
         <v>600</v>
       </c>
-      <c r="F122" s="25"/>
-      <c r="G122" s="26" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H122" s="27"/>
+      <c r="H122" s="24"/>
       <c r="I122" s="12"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B129" s="35"/>
+      <c r="B129" s="36"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="4" t="s">
         <v>3</v>
       </c>
@@ -3044,438 +3070,487 @@
       <c r="A131" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B131" s="20">
+      <c r="B131" s="17">
         <v>3</v>
       </c>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20">
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17">
         <v>3</v>
       </c>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20" t="s">
+      <c r="F131" s="17"/>
+      <c r="G131" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H131" s="20"/>
-      <c r="I131" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="H131" s="17"/>
+      <c r="I131" s="68"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>1.2</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="17">
         <v>2</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20">
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17">
         <v>2</v>
       </c>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20" t="s">
+      <c r="F132" s="17"/>
+      <c r="G132" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H132" s="20"/>
-      <c r="I132" s="22"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="69"/>
     </row>
     <row r="133" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>1.3</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="17">
         <v>20</v>
       </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20">
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17">
         <v>20</v>
       </c>
-      <c r="F133" s="20"/>
-      <c r="G133" s="37" t="s">
+      <c r="F133" s="17"/>
+      <c r="G133" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H133" s="37"/>
-      <c r="I133" s="22"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="69"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>1.4</v>
       </c>
-      <c r="B134" s="38">
+      <c r="B134" s="39">
         <v>180</v>
       </c>
-      <c r="C134" s="63"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="38">
+      <c r="C134" s="61"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="39">
         <v>240</v>
       </c>
-      <c r="F134" s="39"/>
-      <c r="G134" s="30" t="s">
+      <c r="F134" s="40"/>
+      <c r="G134" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H134" s="31"/>
-      <c r="I134" s="22"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="69"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>1.5</v>
       </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="22"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="69"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>1.6</v>
       </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="22"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="69"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>1.7</v>
       </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="16"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>1.9</v>
       </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="19"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B139" s="40"/>
-      <c r="C139" s="61"/>
-      <c r="D139" s="41"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="41"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>2.1</v>
       </c>
-      <c r="B140" s="23">
+      <c r="B140" s="20">
         <v>3</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="23">
+      <c r="C140" s="21"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="20">
         <v>3</v>
       </c>
-      <c r="F140" s="25"/>
-      <c r="G140" s="13" t="s">
+      <c r="F140" s="22"/>
+      <c r="G140" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H140" s="30"/>
+      <c r="I140" s="9"/>
+    </row>
+    <row r="141" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20">
-        <v>10</v>
-      </c>
-      <c r="F141" s="20"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="19"/>
+      <c r="B141" s="39">
+        <v>45</v>
+      </c>
+      <c r="C141" s="61"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="39">
+        <v>60</v>
+      </c>
+      <c r="F141" s="40"/>
+      <c r="G141" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" s="30"/>
+      <c r="I141" s="9"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B142" s="20">
-        <v>10</v>
-      </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20">
-        <v>10</v>
-      </c>
-      <c r="F142" s="20"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="19"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="9"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>2.4</v>
       </c>
-      <c r="B143" s="20">
-        <v>10</v>
-      </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20">
-        <v>10</v>
-      </c>
-      <c r="F143" s="20"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="19"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="42"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="42"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="9"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>3.1</v>
       </c>
-      <c r="B144" s="20">
-        <v>10</v>
-      </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20">
-        <v>10</v>
-      </c>
-      <c r="F144" s="20"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="19"/>
+      <c r="B144" s="17">
+        <v>40</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17">
+        <v>60</v>
+      </c>
+      <c r="F144" s="17"/>
+      <c r="G144" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" s="30"/>
+      <c r="I144" s="9"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>3.2</v>
       </c>
-      <c r="B145" s="20">
-        <v>10</v>
-      </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20">
-        <v>10</v>
-      </c>
-      <c r="F145" s="20"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="19"/>
+      <c r="B145" s="17">
+        <v>10</v>
+      </c>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17">
+        <v>10</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="G145" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H145" s="30"/>
+      <c r="I145" s="9"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>3.3</v>
       </c>
-      <c r="B146" s="20">
-        <v>30</v>
-      </c>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20">
-        <v>30</v>
-      </c>
-      <c r="F146" s="20"/>
-      <c r="G146" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H146" s="34"/>
+      <c r="B146" s="17">
+        <v>2</v>
+      </c>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17">
+        <v>2</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="G146" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H146" s="35"/>
       <c r="I146" s="9"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>4</v>
+      <c r="A147" s="7">
+        <v>3.4</v>
       </c>
       <c r="B147" s="20">
-        <v>1</v>
-      </c>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="22"/>
       <c r="E147" s="20">
-        <v>1</v>
-      </c>
-      <c r="F147" s="20"/>
-      <c r="G147" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="22"/>
+      <c r="G147" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="H147" s="34"/>
+      <c r="H147" s="66"/>
       <c r="I147" s="9"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="20">
-        <v>0</v>
-      </c>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20">
-        <v>0</v>
-      </c>
-      <c r="F148" s="20"/>
-      <c r="G148" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H148" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B148" s="17">
+        <v>10</v>
+      </c>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17">
+        <v>5</v>
+      </c>
+      <c r="F148" s="17"/>
+      <c r="G148" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H148" s="35"/>
       <c r="I148" s="9"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="20">
-        <v>3</v>
-      </c>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20">
-        <v>3</v>
-      </c>
-      <c r="F149" s="20"/>
-      <c r="G149" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H149" s="34"/>
-      <c r="I149" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B149" s="17">
+        <v>5</v>
+      </c>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17">
+        <v>5</v>
+      </c>
+      <c r="F149" s="17"/>
+      <c r="G149" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H149" s="35"/>
+      <c r="I149" s="9"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="23">
+        <v>9</v>
+      </c>
+      <c r="B150" s="17">
+        <v>5</v>
+      </c>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17">
         <v>3</v>
       </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="23">
-        <v>3</v>
-      </c>
-      <c r="F150" s="25"/>
-      <c r="G150" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H150" s="29"/>
-      <c r="I150" s="1"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H150" s="35"/>
+      <c r="I150" s="10"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="20">
+        <v>10</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="20">
+        <v>10</v>
+      </c>
+      <c r="F151" s="22"/>
+      <c r="G151" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H151" s="35"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B151" s="20">
+      <c r="B152" s="17">
+        <v>10</v>
+      </c>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17">
+        <v>10</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="G152" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H152" s="35"/>
+      <c r="I152" s="13"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="17">
         <v>3</v>
       </c>
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20">
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17">
         <v>3</v>
       </c>
-      <c r="F151" s="20"/>
-      <c r="G151" s="37" t="s">
+      <c r="F153" s="17"/>
+      <c r="G153" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H151" s="37"/>
-      <c r="I151" s="62"/>
-    </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B152" s="20">
-        <v>30</v>
-      </c>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20">
-        <v>30</v>
-      </c>
-      <c r="F152" s="20"/>
-      <c r="G152" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H152" s="37"/>
-      <c r="I152" s="62"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E153" s="64"/>
-      <c r="F153" s="64"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="13"/>
+    </row>
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B154" s="17">
+        <v>4</v>
+      </c>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17">
+        <v>4</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H154" s="38"/>
+      <c r="I154" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" s="25"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="43">
+        <f>SUM(E131,E132,E133,E134,E140,E141,E144,E145,E146,E147,E148,E149,E150,E151,E152,E153)</f>
+        <v>446</v>
+      </c>
+      <c r="F155" s="43"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="341">
-    <mergeCell ref="G152:H152"/>
+  <mergeCells count="346">
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G153:H153"/>
     <mergeCell ref="B134:D139"/>
     <mergeCell ref="E134:F139"/>
     <mergeCell ref="G134:H139"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="B153:D153"/>
     <mergeCell ref="E153:F153"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="E150:F150"/>
     <mergeCell ref="G150:H150"/>
     <mergeCell ref="B151:D151"/>
     <mergeCell ref="E151:F151"/>
     <mergeCell ref="G151:H151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:H152"/>
     <mergeCell ref="B146:D146"/>
     <mergeCell ref="E146:F146"/>
     <mergeCell ref="G146:H146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="E148:F148"/>
     <mergeCell ref="G148:H148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
     <mergeCell ref="B140:D140"/>
     <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H145"/>
-    <mergeCell ref="I140:I145"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:F143"/>
     <mergeCell ref="B144:D144"/>
     <mergeCell ref="E144:F144"/>
     <mergeCell ref="B145:D145"/>
     <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="B141:D143"/>
+    <mergeCell ref="E141:F143"/>
+    <mergeCell ref="G141:H143"/>
+    <mergeCell ref="B147:D147"/>
     <mergeCell ref="I137:I138"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="E131:F131"/>
     <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:I136"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="E132:F132"/>
     <mergeCell ref="G132:H132"/>
@@ -3501,12 +3576,6 @@
     <mergeCell ref="G42:H45"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="I61:I71"/>
     <mergeCell ref="I76:I80"/>
     <mergeCell ref="B24:D24"/>
@@ -3525,6 +3594,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="B30:D30"/>
@@ -3534,16 +3611,12 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="A1:B1"/>
@@ -3577,6 +3650,7 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
@@ -3587,6 +3661,7 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="E49:F49"/>
@@ -3696,6 +3771,7 @@
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E104:F104"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B97:D97"/>
@@ -3707,6 +3783,7 @@
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G105:H105"/>
     <mergeCell ref="G112:H112"/>
     <mergeCell ref="I106:I111"/>
     <mergeCell ref="B100:D100"/>
@@ -3730,9 +3807,6 @@
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="E105:F105"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="B107:D107"/>
@@ -3748,7 +3822,6 @@
     <mergeCell ref="E115:F115"/>
     <mergeCell ref="G115:H115"/>
     <mergeCell ref="G106:H111"/>
-    <mergeCell ref="G105:H105"/>
     <mergeCell ref="G103:H104"/>
     <mergeCell ref="I103:I104"/>
     <mergeCell ref="G102:H102"/>
@@ -3771,6 +3844,8 @@
     <mergeCell ref="E121:F121"/>
     <mergeCell ref="G117:H117"/>
     <mergeCell ref="G118:H121"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:F105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" xr:uid="{A4DFC6D2-4F32-4C1F-8326-483BC7CC3334}"/>
@@ -3784,10 +3859,7 @@
     <hyperlink ref="I103:I104" r:id="rId9" display="Aufgabe M4" xr:uid="{35FDF51C-FCF4-4271-982D-3F409C2DF3DC}"/>
     <hyperlink ref="I97:I102" r:id="rId10" display="Aufgabe M4" xr:uid="{F8BA063B-8979-4037-A4F7-0AB6E1FF8FD7}"/>
     <hyperlink ref="I105" r:id="rId11" xr:uid="{D7A33BAC-DBBC-4A0B-A016-E312B867CE82}"/>
-    <hyperlink ref="I140:I145" r:id="rId12" display="Aufgabe M4" xr:uid="{8152972C-6A05-4787-95CA-3418E8BEB031}"/>
-    <hyperlink ref="I137:I138" r:id="rId13" display="Aufgabe M4" xr:uid="{CD710502-2CB5-4034-ADC9-D5D2057EBA2E}"/>
-    <hyperlink ref="I131:I136" r:id="rId14" display="Aufgabe M4" xr:uid="{FD06F3B8-85FE-4962-9191-EB2179C17D47}"/>
-    <hyperlink ref="I139" r:id="rId15" xr:uid="{04EDC238-49C8-43C6-84C8-8A5FC61D80A7}"/>
+    <hyperlink ref="I154" r:id="rId12" xr:uid="{1049029E-C1CB-4CB4-9D2F-46CB45A18BF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
